--- a/Hemolysis_Plots/20240109_Hemolysis_DIPLibrary_CorrectRBCcount.xlsx
+++ b/Hemolysis_Plots/20240109_Hemolysis_DIPLibrary_CorrectRBCcount.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aryellewright/Documents/Documents - Aryelle’s MacBook Air/Kumar-Biomaterials-Lab/Hemolysis_Plots/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6324EE9D-4651-C34F-BDF1-FD6BA5DF6E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E32866A-C7B4-B740-B8ED-0F3F4221AB09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22900" yWindow="860" windowWidth="22140" windowHeight="19340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3740" yWindow="1420" windowWidth="22140" windowHeight="19340" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plate 1 - Sheet1" sheetId="1" r:id="rId1"/>
@@ -1809,7 +1809,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35148759-C4AE-AD41-91D9-E93E824AB987}">
   <dimension ref="C5:S39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="94" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="94" workbookViewId="0">
       <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
@@ -3087,8 +3087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1E5CFDF-3FFF-4E40-A74F-31C2B6E30A28}">
   <dimension ref="C6:V40"/>
   <sheetViews>
-    <sheetView topLeftCell="K2" zoomScale="150" workbookViewId="0">
-      <selection activeCell="Q30" sqref="Q30"/>
+    <sheetView topLeftCell="M1" zoomScale="113" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4616,8 +4616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1D6F8DE-17D0-9441-8AEF-7BA69EA5A787}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
